--- a/medicine/Mort/Victor_Baltard/Victor_Baltard.xlsx
+++ b/medicine/Mort/Victor_Baltard/Victor_Baltard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Victor Baltard, né à Paris le 19 juin 1805[1] et mort à Paris le 13 janvier 1874, est un architecte français qui a exercé à Paris sous le Second Empire. Il est le fils de l'architecte Louis-Pierre Baltard.
+Victor Baltard, né à Paris le 19 juin 1805 et mort à Paris le 13 janvier 1874, est un architecte français qui a exercé à Paris sous le Second Empire. Il est le fils de l'architecte Louis-Pierre Baltard.
 </t>
         </is>
       </c>
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1833, il remporte le grand prix de Rome préparé à l’École des Beaux-Arts de Paris.
 De 1834 à 1838, il séjourne à Rome en tant que pensionnaire de la Villa Médicis. L'Académie de France à Rome est alors sous la direction de Dominique Ingres.
 Il entre à la ville de Paris en 1842.
-Peintre et architecte, il ramènera de son long séjour en Italie une vision unitaire du rapport entre l’architecture, le décor et les arts majeurs : en témoignent ses études sur la décoration des Loges de Raphaël (Salon de 1844), ainsi que l’abondante monographie qu’il a consacrée à la Villa Médicis (1847)[2].
+Peintre et architecte, il ramènera de son long séjour en Italie une vision unitaire du rapport entre l’architecture, le décor et les arts majeurs : en témoignent ses études sur la décoration des Loges de Raphaël (Salon de 1844), ainsi que l’abondante monographie qu’il a consacrée à la Villa Médicis (1847).
 À partir de 1849, il devient architecte de la ville de Paris. Il y est également architecte diocésain pour le palais épiscopal et le grand séminaire, mais ce poste lui est retiré en 1854 car l’administration des cultes considère qu’il attache trop peu d’importance à ses travaux.
 En 1856, il réalise le berceau du prince impérial Louis-Napoléon, chef-d’oeuvre d’Arts décoratifs (aujourd’hui au musée Carnavalet).
 Il est particulièrement célèbre pour les Halles de Paris qu’il a réalisées entre 1852 et 1872. Celles-ci ont été démolies en 1972-73 à l’exception d’un des pavillons (le "Pavillon Baltard") qui a été classé monument historique et a été remonté à Nogent-sur-Marne.
 On lui doit la restauration de différentes églises et plusieurs sépultures.
-Le 9 février 1863, il entre à l'Académie des beaux-arts où il occupe le 4e fauteuil. Il est promu officier de la Légion d'honneur la même année[3].
+Le 9 février 1863, il entre à l'Académie des beaux-arts où il occupe le 4e fauteuil. Il est promu officier de la Légion d'honneur la même année.
 La Bibliothèque historique de la ville de Paris conserve un fonds Victor Baltard composé d'un ensemble de 26 plans originaux mis en place pour les Halles Centrales, comprenant des projets d'ensemble et des détails d'exécution pour l'agrandissement des Halles entre 1844 et 1853.
-Les archives de son agence et de celles de son père, données à l'État par ses héritiers, sont conservées aux Archives nationales à Fontainebleau[4].
+Les archives de son agence et de celles de son père, données à l'État par ses héritiers, sont conservées aux Archives nationales à Fontainebleau.
 Il meurt le 13 janvier 1874, au 10 rue Garancière, dans le 6e arrondissement de Paris.
 </t>
         </is>
@@ -556,25 +570,143 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Architecture
-Marchés
-Des 12 Pavillons des Halles de Paris (1852-1872). Seul le Pavillon Baltard no 8 a été remonté à Nogent-sur-Marne.
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Marchés</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des 12 Pavillons des Halles de Paris (1852-1872). Seul le Pavillon Baltard no 8 a été remonté à Nogent-sur-Marne.
 Marché aux bœufs des Halles de la Villette dans le 19ème arrondissement de Paris
 Marché Secrétan dans le 19ème arrondissement de Paris
-Le Marché de la Chapelle restauré en 2010.
-Édifices religieux
-Construction de l'église Saint-Augustin (1860-1871)
-Façade de Notre-Dame des Blancs-Manteaux : elle provient de l'église Saint-Éloi-des-Barnabites qui était alors située dans l'île de la Cité et qui fut détruite lors des travaux d'Haussmann, puis remontée en 1863 par Baltard.
-Autres
-Maison de Jacques Edmond Arnould dit Arnould-Baltard au Viviers à Trigny (1855-1856).
-Tombe de François Chaussier au cimetière du Père-Lachaise[5]
-Tombe de Jean Auguste Dominique Ingres au cimetière du Père-Lachaise[6]
-Tombe d'Hippolyte Flandrin au cimetière du Père-Lachaise[7]
-Tombe du compositeur Louis James Alfred Lefébure-Wély (1817-1869) au cimetière du Père-Lachaise [8]
+Le Marché de la Chapelle restauré en 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Édifices religieux</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Construction de l'église Saint-Augustin (1860-1871)
+Façade de Notre-Dame des Blancs-Manteaux : elle provient de l'église Saint-Éloi-des-Barnabites qui était alors située dans l'île de la Cité et qui fut détruite lors des travaux d'Haussmann, puis remontée en 1863 par Baltard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maison de Jacques Edmond Arnould dit Arnould-Baltard au Viviers à Trigny (1855-1856).
+Tombe de François Chaussier au cimetière du Père-Lachaise
+Tombe de Jean Auguste Dominique Ingres au cimetière du Père-Lachaise
+Tombe d'Hippolyte Flandrin au cimetière du Père-Lachaise
+Tombe du compositeur Louis James Alfred Lefébure-Wély (1817-1869) au cimetière du Père-Lachaise 
 Tombe du juriste Léon Louis Rostand au cimetière de Montmartre
-Hôtel du timbre et de l'enregistrement (1846-1852)
-Restaurations
-L'église Saint-Germain-l'Auxerrois, en collaboration avec Jean-Baptiste Lassus de 1838 à 1855.
+Hôtel du timbre et de l'enregistrement (1846-1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Baltard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales réalisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Restaurations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'église Saint-Germain-l'Auxerrois, en collaboration avec Jean-Baptiste Lassus de 1838 à 1855.
 L'église Saint-Eustache en 1844.
 L'église Saint-Étienne-du-Mont : il dirige les travaux de construction de la chapelle des Catéchismes et restaure la façade de l'église entre 1861 et 1868.
 L'église de Saint-Germain-des-Prés.
@@ -583,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Victor_Baltard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Victor_Baltard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gravure de l’intérieur des Halles centrales de Paris.
